--- a/biology/Zoologie/Hyptiotes_paradoxus/Hyptiotes_paradoxus.xlsx
+++ b/biology/Zoologie/Hyptiotes_paradoxus/Hyptiotes_paradoxus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyptiotes paradoxus est une espèce d'araignées aranéomorphes de la famille des Uloboridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyptiotes paradoxus est une espèce d'araignées aranéomorphes de la famille des Uloboridae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe jusqu'au Caucase, en Turquie et en Chine[1].
-Elle s'observe pratiquement dans toute l'Europe : du Portugal à la Norvège au nord, à la Russie à l'est[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe jusqu'au Caucase, en Turquie et en Chine.
+Elle s'observe pratiquement dans toute l'Europe : du Portugal à la Norvège au nord, à la Russie à l'est.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,5 à 4 mm et les femelles de 5 à 6 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,5 à 4 mm et les femelles de 5 à 6 mm.
 Très mimétique, cette araignée ressemble à un bourgeon de cônifère. Elle se fixe à un support (souvent des branches basses) par ses pattes postérieures et maintient sa toile triangulaire par ses pattes antérieures. Comme les autres espèces de la famille des Uloboridae, elle est dépourvue de venin.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mithras paradoxus par C. L. Koch en 1834. Elle est placée dans le genre Hyptiotes par Thorell en 1869[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mithras paradoxus par C. L. Koch en 1834. Elle est placée dans le genre Hyptiotes par Thorell en 1869.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1834 : Arachniden. Deutschlands Insekten, p. 122-127.</t>
         </is>
